--- a/file/datamhthuocnganh.xlsx
+++ b/file/datamhthuocnganh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualStudioCode\data_baitaplon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK2-Nam4\DoAn\new\ProjectDoAnMHDKHP\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0293FB99-5F4A-4403-B339-B4CB90980495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369BF234-9160-4785-B010-D504AB0B7000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Mã chuyên ngành</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Học Kì</t>
   </si>
   <si>
-    <t>CNCTM</t>
-  </si>
-  <si>
     <t>MHP05</t>
   </si>
   <si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>MHP08</t>
+  </si>
+  <si>
+    <t>KTPM</t>
+  </si>
+  <si>
+    <t>MHP04</t>
   </si>
 </sst>
 </file>
@@ -372,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,46 +401,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/file/datamhthuocnganh.xlsx
+++ b/file/datamhthuocnganh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK2-Nam4\DoAn\new\ProjectDoAnMHDKHP\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{369BF234-9160-4785-B010-D504AB0B7000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CFC657-5C0B-460A-8E97-6A1E2FD901D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Mã chuyên ngành</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>KTPM</t>
-  </si>
-  <si>
-    <t>MHP04</t>
   </si>
 </sst>
 </file>
@@ -375,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,17 +440,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file/datamhthuocnganh.xlsx
+++ b/file/datamhthuocnganh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\HK2-Nam4\DoAn\new\ProjectDoAnMHDKHP\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CFC657-5C0B-460A-8E97-6A1E2FD901D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC303DC6-2F1B-40A8-B664-FF31799343D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Mã chuyên ngành</t>
   </si>
@@ -36,19 +36,16 @@
     <t>Học Kì</t>
   </si>
   <si>
-    <t>MHP05</t>
-  </si>
-  <si>
-    <t>MHP06</t>
-  </si>
-  <si>
-    <t>MHP07</t>
-  </si>
-  <si>
-    <t>MHP08</t>
-  </si>
-  <si>
     <t>KTPM</t>
+  </si>
+  <si>
+    <t>MHP27</t>
+  </si>
+  <si>
+    <t>MHP28</t>
+  </si>
+  <si>
+    <t>MHP29</t>
   </si>
 </sst>
 </file>
@@ -372,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,46 +395,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/file/datamhthuocnganh.xlsx
+++ b/file/datamhthuocnganh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Desktop\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAPTOP\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC303DC6-2F1B-40A8-B664-FF31799343D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98D46C6-1450-4E17-9BFA-692594435948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Mã chuyên ngành</t>
   </si>
@@ -39,13 +39,7 @@
     <t>KTPM</t>
   </si>
   <si>
-    <t>MHP27</t>
-  </si>
-  <si>
-    <t>MHP28</t>
-  </si>
-  <si>
-    <t>MHP29</t>
+    <t>MHP30</t>
   </si>
 </sst>
 </file>
@@ -369,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,29 +395,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
